--- a/va_facility_data_2025-02-20/Quad Cities VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Quad%20Cities%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Quad Cities VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Quad%20Cities%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R502fb85559cb4d0c98565ec5ee3c26b4"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R76170f088f12479db6776aaa6a724333"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R1aca3e0cd97e441dad97b0f8e8dd137d"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R611bb29936c34d50b85b12163b634daa"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R88bae7ec5f2e4d07a48e5d1277187887"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rf850599448e44e08b37480e7b478da0c"/>
   </x:sheets>
 </x:workbook>
 </file>
